--- a/biology/Médecine/Victor_Chang/Victor_Chang.xlsx
+++ b/biology/Médecine/Victor_Chang/Victor_Chang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Peter Chang (Chang Yam Him ; chinois : 張任謙 ; pinyin : Zhāng Rènqiān), né le 21 novembre 1936 à Shanghai et mort le 4 juillet 1991 à Sydney, est un chirurgien australien d'origine chinoise qui figure parmi les pionniers de la transplantation cardiaque.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Shanghai, il passe son enfance à Hong Kong avant d'arriver en 1953 en Australie. Il étudie la médecine à l'université de Sydney. Il travaille ensuite en tant qu'interne à l'hôpital St Vincent de Sydney, avant de partir en Angleterre.
 Il retourne travailler à l'hôpital St Vincent en 1972. Chang fait pression sur les hommes politiques et les financiers pour lever des fonds afin de mettre en place un programme de transplantation cardiaque dans cet hôpital. La première transplantation faite dans le cadre de ce programme a lieu le 24 février 1984. 
@@ -546,12 +560,14 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Victor Chang Cardiac Research Institute, un organisme chargé des recherches sur « la prévention, le diagnostic et le traitement des maladies du cœur », est inauguré le 15 février 1994 par le Premier ministre australien Paul Keating. L'organisme est financé par le gouvernement et grâce à des fonds privés (incluant par exemple trois millions de dollars australiens de Kerry Packer).
-En 1999, le Premier ministre australien John Howard annonce que Chang a été désigné « Australien du XXe siècle » (Australian of the century)[1].
+En 1999, le Premier ministre australien John Howard annonce que Chang a été désigné « Australien du XXe siècle » (Australian of the century).
 En 2001, sa fille Vanessa publie la biographie Victor Chang: A tribute to my father. Les bénéfices de la vente sont reversés au Victor Chang Cardiac Research Institute.
-Le 21 novembre 2023, à l'occasion des 87 ans de sa naissance, Google lui dédie un « doodle », petite décoration en l'honneur d'un événement ou d'une figure qui remplace le classique logo Google[2],[3].
+Le 21 novembre 2023, à l'occasion des 87 ans de sa naissance, Google lui dédie un « doodle », petite décoration en l'honneur d'un événement ou d'une figure qui remplace le classique logo Google,.
 </t>
         </is>
       </c>
